--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ccl20-Cxcr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ccl20-Cxcr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,16 +79,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Ccl20</t>
+  </si>
+  <si>
+    <t>Cxcr3</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Ccl20</t>
-  </si>
-  <si>
-    <t>Cxcr3</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -522,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -543,40 +546,40 @@
         <v>3.057639</v>
       </c>
       <c r="I2">
-        <v>0.928181872270981</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.928181872270981</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.7166990000000001</v>
+        <v>0.358189</v>
       </c>
       <c r="N2">
-        <v>2.150097</v>
+        <v>0.716378</v>
       </c>
       <c r="O2">
-        <v>0.2276207788704612</v>
+        <v>0.052978466298774</v>
       </c>
       <c r="P2">
-        <v>0.2276207788704611</v>
+        <v>0.03595390511601538</v>
       </c>
       <c r="Q2">
-        <v>0.7304689378870001</v>
+        <v>0.3650708852569999</v>
       </c>
       <c r="R2">
-        <v>6.574220440983001</v>
+        <v>2.190425311542</v>
       </c>
       <c r="S2">
-        <v>0.2112734806997636</v>
+        <v>0.052978466298774</v>
       </c>
       <c r="T2">
-        <v>0.2112734806997636</v>
+        <v>0.03595390511601538</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,13 +587,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -605,134 +608,134 @@
         <v>3.057639</v>
       </c>
       <c r="I3">
-        <v>0.928181872270981</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.928181872270981</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>2.431954666666666</v>
+        <v>0.574863</v>
       </c>
       <c r="N3">
-        <v>7.295864</v>
+        <v>1.724589</v>
       </c>
       <c r="O3">
-        <v>0.7723792211295388</v>
+        <v>0.08502595018806307</v>
       </c>
       <c r="P3">
-        <v>0.7723792211295388</v>
+        <v>0.08655445766079338</v>
       </c>
       <c r="Q3">
-        <v>2.478679811677333</v>
+        <v>0.585907842819</v>
       </c>
       <c r="R3">
-        <v>22.308118305096</v>
+        <v>5.273170585371</v>
       </c>
       <c r="S3">
-        <v>0.7169083915712174</v>
+        <v>0.08502595018806307</v>
       </c>
       <c r="T3">
-        <v>0.7169083915712174</v>
+        <v>0.08655445766079338</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
         <v>21</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.07886166666666666</v>
+        <v>1.019213</v>
       </c>
       <c r="H4">
-        <v>0.236585</v>
+        <v>3.057639</v>
       </c>
       <c r="I4">
-        <v>0.07181812772901904</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.07181812772901904</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.7166990000000001</v>
+        <v>5.590969</v>
       </c>
       <c r="N4">
-        <v>2.150097</v>
+        <v>16.772907</v>
       </c>
       <c r="O4">
-        <v>0.2276207788704612</v>
+        <v>0.8269404217996371</v>
       </c>
       <c r="P4">
-        <v>0.2276207788704611</v>
+        <v>0.8418062905306279</v>
       </c>
       <c r="Q4">
-        <v>0.05652007763833334</v>
+        <v>5.698388287397</v>
       </c>
       <c r="R4">
-        <v>0.508680698745</v>
+        <v>51.285494586573</v>
       </c>
       <c r="S4">
-        <v>0.01634729817069758</v>
+        <v>0.8269404217996371</v>
       </c>
       <c r="T4">
-        <v>0.01634729817069757</v>
+        <v>0.8418062905306279</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.07886166666666666</v>
+        <v>1.019213</v>
       </c>
       <c r="H5">
-        <v>0.236585</v>
+        <v>3.057639</v>
       </c>
       <c r="I5">
-        <v>0.07181812772901904</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.07181812772901904</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.431954666666666</v>
+        <v>0.237009</v>
       </c>
       <c r="N5">
-        <v>7.295864</v>
+        <v>0.7110270000000001</v>
       </c>
       <c r="O5">
-        <v>0.7723792211295388</v>
+        <v>0.0350551617135259</v>
       </c>
       <c r="P5">
-        <v>0.7723792211295388</v>
+        <v>0.03568534669256324</v>
       </c>
       <c r="Q5">
-        <v>0.1917879982711111</v>
+        <v>0.241562653917</v>
       </c>
       <c r="R5">
-        <v>1.72609198444</v>
+        <v>2.174063885253</v>
       </c>
       <c r="S5">
-        <v>0.05547082955832146</v>
+        <v>0.0350551617135259</v>
       </c>
       <c r="T5">
-        <v>0.05547082955832146</v>
+        <v>0.03568534669256324</v>
       </c>
     </row>
   </sheetData>
